--- a/param.xlsx
+++ b/param.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="35">
   <si>
     <t>input</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -147,6 +147,10 @@
   </si>
   <si>
     <t>VGG_3D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>std</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -506,8 +510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E33" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H53" sqref="H53"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1209,7 +1213,7 @@
         <v>4096</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:9">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -1238,7 +1242,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:9">
       <c r="F34">
         <f>SUM(F18:F33)</f>
         <v>132863336</v>
@@ -1248,7 +1252,7 @@
         <v>8965608</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:9">
       <c r="A38" t="s">
         <v>33</v>
       </c>
@@ -1273,8 +1277,11 @@
       <c r="H38" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="39" spans="1:8">
+      <c r="I38" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" t="s">
         <v>3</v>
       </c>
@@ -1302,8 +1309,12 @@
         <f>G39*G39*G39*C39</f>
         <v>134217728</v>
       </c>
-    </row>
-    <row r="40" spans="1:8">
+      <c r="I39">
+        <f>1/SQRT(B39*D39*D39*D39)</f>
+        <v>0.19245008972987526</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" t="s">
         <v>18</v>
       </c>
@@ -1320,18 +1331,18 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <f t="shared" ref="F40:F55" si="6">B40*C40*D40*D40*D40+E40</f>
+        <f t="shared" ref="F40:F52" si="6">B40*C40*D40*D40*D40+E40</f>
         <v>0</v>
       </c>
       <c r="G40">
         <v>64</v>
       </c>
       <c r="H40">
-        <f t="shared" ref="H40:H53" si="7">G40*G40*G40*C40</f>
+        <f t="shared" ref="H40:H52" si="7">G40*G40*G40*C40</f>
         <v>16777216</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:9">
       <c r="A41" t="s">
         <v>6</v>
       </c>
@@ -1359,8 +1370,12 @@
         <f t="shared" si="7"/>
         <v>33554432</v>
       </c>
-    </row>
-    <row r="42" spans="1:8">
+      <c r="I41">
+        <f t="shared" ref="I40:I52" si="8">1/SQRT(B41*D41*D41*D41)</f>
+        <v>2.4056261216234408E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" t="s">
         <v>20</v>
       </c>
@@ -1388,7 +1403,7 @@
         <v>4194304</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:9">
       <c r="A43" t="s">
         <v>9</v>
       </c>
@@ -1416,8 +1431,12 @@
         <f t="shared" si="7"/>
         <v>8388608</v>
       </c>
-    </row>
-    <row r="44" spans="1:8">
+      <c r="I43">
+        <f t="shared" si="8"/>
+        <v>1.7010345435994292E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" t="s">
         <v>22</v>
       </c>
@@ -1445,8 +1464,12 @@
         <f t="shared" si="7"/>
         <v>8388608</v>
       </c>
-    </row>
-    <row r="45" spans="1:8">
+      <c r="I44">
+        <f t="shared" si="8"/>
+        <v>1.2028130608117204E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" t="s">
         <v>23</v>
       </c>
@@ -1474,7 +1497,7 @@
         <v>1048576</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:9">
       <c r="A46" t="s">
         <v>24</v>
       </c>
@@ -1502,8 +1525,12 @@
         <f t="shared" si="7"/>
         <v>2097152</v>
       </c>
-    </row>
-    <row r="47" spans="1:8">
+      <c r="I46">
+        <f t="shared" si="8"/>
+        <v>1.2028130608117204E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" t="s">
         <v>25</v>
       </c>
@@ -1531,8 +1558,12 @@
         <f t="shared" si="7"/>
         <v>2097152</v>
       </c>
-    </row>
-    <row r="48" spans="1:8">
+      <c r="I47">
+        <f t="shared" si="8"/>
+        <v>8.5051727179971462E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" t="s">
         <v>26</v>
       </c>
@@ -1560,7 +1591,7 @@
         <v>262144</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:9">
       <c r="A49" t="s">
         <v>27</v>
       </c>
@@ -1588,8 +1619,12 @@
         <f t="shared" si="7"/>
         <v>262144</v>
       </c>
-    </row>
-    <row r="50" spans="1:8">
+      <c r="I49">
+        <f t="shared" si="8"/>
+        <v>8.5051727179971462E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" t="s">
         <v>28</v>
       </c>
@@ -1617,8 +1652,12 @@
         <f t="shared" si="7"/>
         <v>262144</v>
       </c>
-    </row>
-    <row r="51" spans="1:8">
+      <c r="I50">
+        <f t="shared" si="8"/>
+        <v>8.5051727179971462E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" t="s">
         <v>29</v>
       </c>
@@ -1646,7 +1685,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:9">
       <c r="A52" t="s">
         <v>30</v>
       </c>
@@ -1674,8 +1713,12 @@
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="53" spans="1:8">
+      <c r="I52">
+        <f t="shared" si="8"/>
+        <v>4.4194173824159216E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="F53">
         <f>SUM(F39:F52)</f>
         <v>27653506</v>
